--- a/DateBase/orders/Fresh bloom Flowers_2026-2-9.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2026-2-9.xlsx
@@ -1159,6 +1159,9 @@
       <c r="G2" t="str">
         <v>030214114101015102050330172050550510075801243212030100517053078311125202013035177.5815111731116103651081815223855104.5235516</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
